--- a/Consumer/BROS.xlsx
+++ b/Consumer/BROS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D448AA05-9C9B-CA46-90D3-8F0B355568A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27ADA39-4221-B149-AFFF-4FFF4A5D0D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -2032,11 +2032,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>43.49</v>
+    <v>50.24</v>
     <v>25.46</v>
-    <v>1.988</v>
-    <v>1.31</v>
-    <v>3.8953000000000002E-2</v>
+    <v>2.024</v>
+    <v>9.82</v>
+    <v>0.281053</v>
+    <v>-7.0000000000000007E-2</v>
+    <v>-1.5640000000000001E-3</v>
     <v>USD</v>
     <v>Dutch Bros Inc. is an operator and franchiser of drive-thru shops, which is focused on serving hand-crafted beverages. The Company sells a range of customizable hot, iced and blended beverages. Coffee-based beverages include its espresso-based custom drinks, cold brew and its proprietary Freeze blended beverages. Its Private Reserve coffee is a 100% Arabica three-bean blend, roasted in its Grants Pass facility. Its proprietary Blue Rebel energy drink is customizable with flavors and modifiers. It also offers a variety of teas, lemonades, sodas and smoothies. The Company has two segments: Company-operated shops, and Franchising and other. The Company-operated shops segment includes coffee shop sales to customers. The Franchising and other segment includes bean and product sales to franchise partners and includes the initial franchise fees, royalties, and marketing fees. It has approximately 831 shops, of which 542 are operated by the Company and 289 are franchised, across 16 states.</v>
     <v>24000</v>
@@ -2044,24 +2046,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>300 N Valley Dr, GRANTS PASS, OR, 97526 US</v>
-    <v>35.4</v>
+    <v>50.24</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45602.932638043749</v>
+    <v>45604.041350115622</v>
     <v>0</v>
-    <v>33.799999999999997</v>
-    <v>5387332214</v>
+    <v>43.5</v>
+    <v>6901459356</v>
     <v>Dutch Bros Inc</v>
     <v>Dutch Bros Inc</v>
-    <v>34.5</v>
-    <v>137.6823</v>
-    <v>33.630000000000003</v>
+    <v>43.648000000000003</v>
+    <v>176.48910000000001</v>
     <v>34.94</v>
+    <v>44.76</v>
+    <v>44.7</v>
     <v>154188100</v>
     <v>BROS</v>
     <v>Dutch Bros Inc (XNYS:BROS)</v>
-    <v>11933</v>
-    <v>2094027</v>
+    <v>20545626</v>
+    <v>2247231</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2093,6 +2096,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2113,6 +2118,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2129,7 +2135,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2140,13 +2146,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2212,13 +2221,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2263,6 +2278,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2270,6 +2288,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2970,14 +2991,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>34.94</v>
+        <v>44.76</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="39">
         <f ca="1">A5/F10</f>
-        <v>4.3799448894308943</v>
+        <v>5.6109425658536587</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -3017,14 +3038,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>3.8953000000000002E-2</v>
+        <v>0.281053</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="39">
         <f ca="1">A5/F15</f>
-        <v>75.481375506143777</v>
+        <v>96.695660207641552</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -3065,14 +3086,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="37" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>5387332214</v>
+        <v>6901459356</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="40">
         <f ca="1">F18/A5</f>
-        <v>-1.3550305995664369E-2</v>
+        <v>-1.0577473000190194E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3114,7 +3135,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>1.988</v>
+        <v>2.024</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3146,7 +3167,7 @@
       </c>
       <c r="K6" s="46">
         <f ca="1">K5/A3-1</f>
-        <v>-0.94419126873579351</v>
+        <v>-0.95643527546087193</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>

--- a/Consumer/BROS.xlsx
+++ b/Consumer/BROS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27ADA39-4221-B149-AFFF-4FFF4A5D0D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61C91DE-ACAF-1C46-9896-3229AEF40C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -899,19 +899,19 @@
                   <c:v>965800000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1230000000</c:v>
+                  <c:v>1257000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1480000000</c:v>
+                  <c:v>1519000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1769000000</c:v>
+                  <c:v>1829000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2153000000</c:v>
+                  <c:v>2168000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2514000000</c:v>
+                  <c:v>2565000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1001,19 +1001,19 @@
                   <c:v>1718000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>71373000</c:v>
+                  <c:v>79000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85000000</c:v>
+                  <c:v>96000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>108000000</c:v>
+                  <c:v>127000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>161000000</c:v>
+                  <c:v>153000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>206500000</c:v>
+                  <c:v>213000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,19 +1103,19 @@
                   <c:v>-98000000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-73000000</c:v>
+                  <c:v>-42000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-37000000</c:v>
+                  <c:v>-26000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3728000</c:v>
+                  <c:v>17000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46000000</c:v>
+                  <c:v>31000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100000000</c:v>
+                  <c:v>61000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2034,11 +2034,11 @@
     <v>Powered by Refinitiv</v>
     <v>50.24</v>
     <v>25.46</v>
-    <v>2.024</v>
-    <v>9.82</v>
-    <v>0.281053</v>
-    <v>-7.0000000000000007E-2</v>
-    <v>-1.5640000000000001E-3</v>
+    <v>2.1819999999999999</v>
+    <v>2.09</v>
+    <v>4.3796999999999996E-2</v>
+    <v>-0.01</v>
+    <v>-2.008E-4</v>
     <v>USD</v>
     <v>Dutch Bros Inc. is an operator and franchiser of drive-thru shops, which is focused on serving hand-crafted beverages. The Company sells a range of customizable hot, iced and blended beverages. Coffee-based beverages include its espresso-based custom drinks, cold brew and its proprietary Freeze blended beverages. Its Private Reserve coffee is a 100% Arabica three-bean blend, roasted in its Grants Pass facility. Its proprietary Blue Rebel energy drink is customizable with flavors and modifiers. It also offers a variety of teas, lemonades, sodas and smoothies. The Company has two segments: Company-operated shops, and Franchising and other. The Company-operated shops segment includes coffee shop sales to customers. The Franchising and other segment includes bean and product sales to franchise partners and includes the initial franchise fees, royalties, and marketing fees. It has approximately 831 shops, of which 542 are operated by the Company and 289 are franchised, across 16 states.</v>
     <v>24000</v>
@@ -2046,25 +2046,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>300 N Valley Dr, GRANTS PASS, OR, 97526 US</v>
-    <v>50.24</v>
+    <v>49.85</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45604.041350115622</v>
+    <v>45616.040752638284</v>
     <v>0</v>
-    <v>43.5</v>
-    <v>6901459356</v>
+    <v>47.2</v>
+    <v>7680298539</v>
     <v>Dutch Bros Inc</v>
     <v>Dutch Bros Inc</v>
-    <v>43.648000000000003</v>
-    <v>176.48910000000001</v>
-    <v>34.94</v>
-    <v>44.76</v>
-    <v>44.7</v>
-    <v>154188100</v>
+    <v>47.34</v>
+    <v>169.4794</v>
+    <v>47.72</v>
+    <v>49.81</v>
+    <v>49.8</v>
+    <v>154191900</v>
     <v>BROS</v>
     <v>Dutch Bros Inc (XNYS:BROS)</v>
-    <v>20545626</v>
-    <v>2247231</v>
+    <v>3767823</v>
+    <v>3481296</v>
     <v>2021</v>
   </rv>
   <rv s="2">
@@ -2229,9 +2229,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2958,7 +2958,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2991,14 +2991,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>44.76</v>
+        <v>49.81</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="39">
         <f ca="1">A5/F10</f>
-        <v>5.6109425658536587</v>
+        <v>6.110022704057279</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -3012,14 +3012,14 @@
       </c>
       <c r="G3" s="43" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">_FV(A1,"Shares outstanding",TRUE)*(1+(5*C6))</f>
-        <v>154188100</v>
+        <v>154191900</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="43">
         <f>J18*(1+K4)/(I6-K4)</f>
-        <v>1366666666.6666663</v>
+        <v>833666666.66666639</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>2</v>
@@ -3038,21 +3038,21 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>0.281053</v>
+        <v>4.3796999999999996E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="39">
         <f ca="1">A5/F15</f>
-        <v>96.695660207641552</v>
+        <v>97.218968848101269</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="42">
         <f>F17</f>
-        <v>5.8026829268292682E-2</v>
+        <v>6.2848050914876691E-2</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>6</v>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="I4" s="43">
         <f>NPV(I6,F18,G18,H18,I18,(J18+I3))</f>
-        <v>842360175.76212847</v>
+        <v>529793957.60763109</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>5</v>
@@ -3086,21 +3086,21 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="37" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>6901459356</v>
+        <v>7680298539</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="40">
         <f ca="1">F18/A5</f>
-        <v>-1.0577473000190194E-2</v>
+        <v>-5.4685374255606135E-3</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="42">
         <f>F20</f>
-        <v>-5.9349593495934959E-2</v>
+        <v>-3.3412887828162291E-2</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>8</v>
@@ -3113,14 +3113,14 @@
       </c>
       <c r="I5" s="43">
         <f>I4+G4-G5</f>
-        <v>300660175.76212847</v>
+        <v>-11906042.392368913</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="45">
         <f ca="1">I5/G3</f>
-        <v>1.9499570703713742</v>
+        <v>-7.7215744746442022E-2</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>11</v>
@@ -3135,7 +3135,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>2.024</v>
+        <v>2.1819999999999999</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="K6" s="46">
         <f ca="1">K5/A3-1</f>
-        <v>-0.95643527546087193</v>
+        <v>-1.0015502056764995</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>13</v>
@@ -3274,19 +3274,19 @@
         <v>965800000</v>
       </c>
       <c r="F10" s="59">
-        <v>1230000000</v>
+        <v>1257000000</v>
       </c>
       <c r="G10" s="59">
-        <v>1480000000</v>
+        <v>1519000000</v>
       </c>
       <c r="H10" s="59">
-        <v>1769000000</v>
+        <v>1829000000</v>
       </c>
       <c r="I10" s="59">
-        <v>2153000000</v>
+        <v>2168000000</v>
       </c>
       <c r="J10" s="59">
-        <v>2514000000</v>
+        <v>2565000000</v>
       </c>
       <c r="K10" s="60" t="s">
         <v>19</v>
@@ -3316,27 +3316,27 @@
       </c>
       <c r="F11" s="19">
         <f t="shared" si="0"/>
-        <v>0.27355560157382475</v>
+        <v>0.30151170014495765</v>
       </c>
       <c r="G11" s="19">
         <f t="shared" si="0"/>
-        <v>0.20325203252032531</v>
+        <v>0.20843277645186964</v>
       </c>
       <c r="H11" s="19">
         <f t="shared" si="0"/>
-        <v>0.19527027027027022</v>
+        <v>0.20408163265306123</v>
       </c>
       <c r="I11" s="19">
         <f t="shared" si="0"/>
-        <v>0.21707179197286597</v>
+        <v>0.18534718425369046</v>
       </c>
       <c r="J11" s="25">
         <f t="shared" si="0"/>
-        <v>0.16767301439851368</v>
+        <v>0.18311808118081174</v>
       </c>
       <c r="K11" s="61">
         <f>AVERAGE(F11:J11)</f>
-        <v>0.21136454214716</v>
+        <v>0.21649827493687815</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -3456,19 +3456,19 @@
         <v>1718000</v>
       </c>
       <c r="F15" s="59">
-        <v>71373000</v>
+        <v>79000000</v>
       </c>
       <c r="G15" s="59">
-        <v>85000000</v>
+        <v>96000000</v>
       </c>
       <c r="H15" s="59">
-        <v>108000000</v>
+        <v>127000000</v>
       </c>
       <c r="I15" s="59">
-        <v>161000000</v>
+        <v>153000000</v>
       </c>
       <c r="J15" s="59">
-        <v>206500000</v>
+        <v>213000000</v>
       </c>
       <c r="K15" s="60" t="s">
         <v>20</v>
@@ -3498,27 +3498,27 @@
       </c>
       <c r="F16" s="29">
         <f t="shared" si="1"/>
-        <v>40.544237485448193</v>
+        <v>44.983701979045399</v>
       </c>
       <c r="G16" s="29">
         <f t="shared" si="1"/>
-        <v>0.19092654084878036</v>
+        <v>0.21518987341772156</v>
       </c>
       <c r="H16" s="29">
         <f t="shared" si="1"/>
-        <v>0.27058823529411757</v>
+        <v>0.32291666666666674</v>
       </c>
       <c r="I16" s="29">
         <f t="shared" si="1"/>
-        <v>0.4907407407407407</v>
+        <v>0.20472440944881898</v>
       </c>
       <c r="J16" s="30">
         <f t="shared" si="1"/>
-        <v>0.28260869565217384</v>
+        <v>0.39215686274509798</v>
       </c>
       <c r="K16" s="63">
         <f>AVERAGE(G16:J16)</f>
-        <v>0.30871605313395312</v>
+        <v>0.28374695306957631</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -3550,23 +3550,23 @@
       </c>
       <c r="F17" s="5">
         <f t="shared" si="2"/>
-        <v>5.8026829268292682E-2</v>
+        <v>6.2848050914876691E-2</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="2"/>
-        <v>5.7432432432432436E-2</v>
+        <v>6.319947333772219E-2</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" si="2"/>
-        <v>6.1051441492368567E-2</v>
+        <v>6.9436850738108249E-2</v>
       </c>
       <c r="I17" s="5">
         <f t="shared" si="2"/>
-        <v>7.4779377612633535E-2</v>
+        <v>7.0571955719557197E-2</v>
       </c>
       <c r="J17" s="27">
         <f t="shared" si="2"/>
-        <v>8.2140015910898964E-2</v>
+        <v>8.3040935672514624E-2</v>
       </c>
       <c r="K17" s="65"/>
       <c r="L17" s="2"/>
@@ -3594,19 +3594,19 @@
         <v>-98000000</v>
       </c>
       <c r="F18" s="59">
-        <v>-73000000</v>
+        <v>-42000000</v>
       </c>
       <c r="G18" s="59">
-        <v>-37000000</v>
+        <v>-26000000</v>
       </c>
       <c r="H18" s="59">
-        <v>-3728000</v>
+        <v>17000000</v>
       </c>
       <c r="I18" s="59">
-        <v>46000000</v>
+        <v>31000000</v>
       </c>
       <c r="J18" s="59">
-        <v>100000000</v>
+        <v>61000000</v>
       </c>
       <c r="K18" s="60" t="s">
         <v>21</v>
@@ -3635,27 +3635,27 @@
       </c>
       <c r="F19" s="29">
         <f t="shared" si="3"/>
-        <v>-0.25510204081632648</v>
+        <v>-0.5714285714285714</v>
       </c>
       <c r="G19" s="29">
         <f t="shared" si="3"/>
-        <v>-0.49315068493150682</v>
+        <v>-0.38095238095238093</v>
       </c>
       <c r="H19" s="29">
         <f t="shared" si="3"/>
-        <v>-0.89924324324324323</v>
+        <v>-1.6538461538461537</v>
       </c>
       <c r="I19" s="29">
         <f t="shared" si="3"/>
-        <v>-13.339055793991417</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="J19" s="30">
         <f t="shared" si="3"/>
-        <v>1.1739130434782608</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="K19" s="63">
-        <f>AVERAGE(G19:J19)</f>
-        <v>-3.3893841696719766</v>
+        <f>AVERAGE(F19:J19)</f>
+        <v>-0.16299115179570581</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -3687,23 +3687,23 @@
       </c>
       <c r="F20" s="33">
         <f t="shared" si="4"/>
-        <v>-5.9349593495934959E-2</v>
+        <v>-3.3412887828162291E-2</v>
       </c>
       <c r="G20" s="33">
         <f t="shared" si="4"/>
-        <v>-2.5000000000000001E-2</v>
+        <v>-1.7116524028966424E-2</v>
       </c>
       <c r="H20" s="33">
         <f t="shared" si="4"/>
-        <v>-2.1074053137365742E-3</v>
+        <v>9.2946965554948063E-3</v>
       </c>
       <c r="I20" s="33">
         <f t="shared" si="4"/>
-        <v>2.1365536460752437E-2</v>
+        <v>1.429889298892989E-2</v>
       </c>
       <c r="J20" s="34">
         <f t="shared" si="4"/>
-        <v>3.9777247414478918E-2</v>
+        <v>2.3781676413255362E-2</v>
       </c>
       <c r="K20" s="66"/>
       <c r="L20" s="2"/>
